--- a/tools/excel/finma/finma_framework_final_EN.xlsx
+++ b/tools/excel/finma/finma_framework_final_EN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDoloir\Desktop\Repos\intuitem\ciso-assistant-community\tools\excel\finma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53298B15-0162-4FCA-8C39-ADD16F64C71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51360B2F-6A0E-412F-A158-19FDE8ACA926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1201,7 +1201,7 @@
   <dimension ref="A1:E134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
